--- a/scraping/management/temp/hehe.xlsx
+++ b/scraping/management/temp/hehe.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\thanglongAPI\scraping\management\temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A74F6EB-4179-4612-A99E-A61C419474FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1732,8 +1738,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,6 +1776,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1816,7 +1830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1848,9 +1862,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1882,6 +1914,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2057,14 +2107,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2117,7 +2173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2164,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2189,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2200,7 +2256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2214,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2253,7 +2309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2264,7 +2320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2275,7 +2331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2286,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2297,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2319,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2330,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2341,7 +2397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2355,7 +2411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2366,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2380,7 +2436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2394,7 +2450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2408,7 +2464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2422,7 +2478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2436,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2458,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2472,7 +2528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2486,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2497,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2519,7 +2575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +2589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2547,7 +2603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2561,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2575,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -2586,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2600,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -2614,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -2625,7 +2681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2639,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -2653,7 +2709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -2664,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -2678,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -2692,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -2706,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -2720,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -2734,7 +2790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -2748,7 +2804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -2762,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -2776,7 +2832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -2790,7 +2846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -2804,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -2818,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -2832,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>147</v>
       </c>
@@ -2846,7 +2902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -2860,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -2874,7 +2930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -2888,7 +2944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2902,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -2916,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -2930,7 +2986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -2944,7 +3000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -2958,7 +3014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -2972,7 +3028,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>170</v>
       </c>
@@ -2983,7 +3039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>172</v>
       </c>
@@ -2997,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -3008,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>176</v>
       </c>
@@ -3022,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -3033,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -3047,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -3064,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -3075,7 +3131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>186</v>
       </c>
@@ -3086,7 +3142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -3097,7 +3153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -3111,7 +3167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>193</v>
       </c>
@@ -3122,7 +3178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>195</v>
       </c>
@@ -3136,7 +3192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>198</v>
       </c>
@@ -3150,7 +3206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -3164,7 +3220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -3178,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -3192,7 +3248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>210</v>
       </c>
@@ -3206,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>213</v>
       </c>
@@ -3220,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>216</v>
       </c>
@@ -3234,7 +3290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -3248,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -3262,7 +3318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>224</v>
       </c>
@@ -3273,7 +3329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>226</v>
       </c>
@@ -3284,7 +3340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -3298,7 +3354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -3312,7 +3368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>234</v>
       </c>
@@ -3326,7 +3382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>237</v>
       </c>
@@ -3340,7 +3396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -3354,7 +3410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>242</v>
       </c>
@@ -3368,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>245</v>
       </c>
@@ -3382,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>248</v>
       </c>
@@ -3396,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>250</v>
       </c>
@@ -3410,7 +3466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -3424,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -3438,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>258</v>
       </c>
@@ -3452,7 +3508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>261</v>
       </c>
@@ -3466,7 +3522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -3480,7 +3536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>266</v>
       </c>
@@ -3491,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>268</v>
       </c>
@@ -3502,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>270</v>
       </c>
@@ -3516,7 +3572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>273</v>
       </c>
@@ -3530,7 +3586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>275</v>
       </c>
@@ -3544,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -3555,7 +3611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>280</v>
       </c>
@@ -3566,7 +3622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>282</v>
       </c>
@@ -3577,7 +3633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -3588,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>285</v>
       </c>
@@ -3599,7 +3655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>287</v>
       </c>
@@ -3610,7 +3666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -3621,7 +3677,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>291</v>
       </c>
@@ -3635,7 +3691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>294</v>
       </c>
@@ -3646,7 +3702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>296</v>
       </c>
@@ -3657,7 +3713,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -3671,7 +3727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>301</v>
       </c>
@@ -3682,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>303</v>
       </c>
@@ -3693,7 +3749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>304</v>
       </c>
@@ -3704,7 +3760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>306</v>
       </c>
@@ -3718,7 +3774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>309</v>
       </c>
@@ -3732,7 +3788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>312</v>
       </c>
@@ -3743,7 +3799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>314</v>
       </c>
@@ -3754,7 +3810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>316</v>
       </c>
@@ -3768,7 +3824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>319</v>
       </c>
@@ -3779,7 +3835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>321</v>
       </c>
@@ -3793,7 +3849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>324</v>
       </c>
@@ -3804,7 +3860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>326</v>
       </c>
@@ -3818,7 +3874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>329</v>
       </c>
@@ -3829,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>331</v>
       </c>
@@ -3843,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>334</v>
       </c>
@@ -3854,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>335</v>
       </c>
@@ -3865,7 +3921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>337</v>
       </c>
@@ -3879,7 +3935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>340</v>
       </c>
@@ -3890,7 +3946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>342</v>
       </c>
@@ -3901,7 +3957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -3915,7 +3971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>347</v>
       </c>
@@ -3926,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>349</v>
       </c>
@@ -3940,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>351</v>
       </c>
@@ -3951,7 +4007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>353</v>
       </c>
@@ -3965,7 +4021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -3979,7 +4035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>359</v>
       </c>
@@ -3990,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>361</v>
       </c>
@@ -4004,7 +4060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>364</v>
       </c>
@@ -4015,7 +4071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>366</v>
       </c>
@@ -4029,7 +4085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>369</v>
       </c>
@@ -4040,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>371</v>
       </c>
@@ -4054,7 +4110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>374</v>
       </c>
@@ -4065,7 +4121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>376</v>
       </c>
@@ -4079,7 +4135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>379</v>
       </c>
@@ -4093,7 +4149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -4104,7 +4160,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>385</v>
       </c>
@@ -4121,7 +4177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>388</v>
       </c>
@@ -4138,7 +4194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>390</v>
       </c>
@@ -4152,7 +4208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>393</v>
       </c>
@@ -4166,7 +4222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>396</v>
       </c>
@@ -4180,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>398</v>
       </c>
@@ -4194,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>400</v>
       </c>
@@ -4208,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>403</v>
       </c>
@@ -4219,7 +4275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>406</v>
       </c>
@@ -4230,7 +4286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>408</v>
       </c>
@@ -4247,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>412</v>
       </c>
@@ -4261,7 +4317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>415</v>
       </c>
@@ -4278,7 +4334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>418</v>
       </c>
@@ -4289,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>420</v>
       </c>
@@ -4300,7 +4356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>422</v>
       </c>
@@ -4314,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>425</v>
       </c>
@@ -4328,7 +4384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>428</v>
       </c>
@@ -4342,7 +4398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>431</v>
       </c>
@@ -4353,7 +4409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>433</v>
       </c>
@@ -4367,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>435</v>
       </c>
@@ -4378,7 +4434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>437</v>
       </c>
@@ -4392,7 +4448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>439</v>
       </c>
@@ -4403,7 +4459,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>441</v>
       </c>
@@ -4414,7 +4470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>443</v>
       </c>
@@ -4425,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>445</v>
       </c>
@@ -4436,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>447</v>
       </c>
@@ -4447,7 +4503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>449</v>
       </c>
@@ -4461,7 +4517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>452</v>
       </c>
@@ -4475,7 +4531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>455</v>
       </c>
@@ -4489,7 +4545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>457</v>
       </c>
@@ -4500,7 +4556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>459</v>
       </c>
@@ -4514,7 +4570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>461</v>
       </c>
@@ -4525,7 +4581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>463</v>
       </c>
@@ -4536,7 +4592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>465</v>
       </c>
@@ -4547,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>467</v>
       </c>
@@ -4558,7 +4614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>469</v>
       </c>
@@ -4569,7 +4625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>471</v>
       </c>
@@ -4580,7 +4636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>473</v>
       </c>
@@ -4591,7 +4647,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>475</v>
       </c>
@@ -4602,7 +4658,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>477</v>
       </c>
@@ -4616,7 +4672,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>480</v>
       </c>
@@ -4627,7 +4683,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>482</v>
       </c>
@@ -4641,7 +4697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>485</v>
       </c>
@@ -4652,7 +4708,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>487</v>
       </c>
@@ -4666,7 +4722,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>490</v>
       </c>
@@ -4677,7 +4733,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>492</v>
       </c>
@@ -4691,7 +4747,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>495</v>
       </c>
@@ -4702,7 +4758,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>497</v>
       </c>
@@ -4713,7 +4769,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>499</v>
       </c>
@@ -4727,7 +4783,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>502</v>
       </c>
@@ -4738,7 +4794,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>504</v>
       </c>
@@ -4752,7 +4808,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>507</v>
       </c>
@@ -4763,7 +4819,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>509</v>
       </c>
@@ -4777,7 +4833,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>512</v>
       </c>
@@ -4788,7 +4844,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -4799,7 +4855,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>516</v>
       </c>
@@ -4810,7 +4866,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>518</v>
       </c>
@@ -4824,7 +4880,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>521</v>
       </c>
@@ -4835,7 +4891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>523</v>
       </c>
@@ -4846,7 +4902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>525</v>
       </c>
@@ -4857,7 +4913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>527</v>
       </c>
@@ -4868,7 +4924,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>529</v>
       </c>
@@ -4879,7 +4935,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -4890,7 +4946,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>533</v>
       </c>
@@ -4901,7 +4957,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>535</v>
       </c>
@@ -4912,7 +4968,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>537</v>
       </c>
@@ -4923,7 +4979,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>539</v>
       </c>
@@ -4934,7 +4990,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>541</v>
       </c>
@@ -4945,7 +5001,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>543</v>
       </c>
@@ -4956,7 +5012,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>545</v>
       </c>
@@ -4967,7 +5023,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -4978,7 +5034,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>549</v>
       </c>
@@ -4989,7 +5045,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>551</v>
       </c>
@@ -5000,7 +5056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>552</v>
       </c>
@@ -5011,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>553</v>
       </c>
@@ -5022,7 +5078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>554</v>
       </c>
@@ -5033,7 +5089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>555</v>
       </c>
@@ -5044,7 +5100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>557</v>
       </c>
@@ -5058,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>558</v>
       </c>
@@ -5069,7 +5125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>560</v>
       </c>
@@ -5083,7 +5139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>561</v>
       </c>
@@ -5094,7 +5150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>563</v>
       </c>
@@ -5105,7 +5161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>565</v>
       </c>
@@ -5116,7 +5172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>567</v>
       </c>
@@ -5127,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>568</v>
       </c>
@@ -5138,7 +5194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>569</v>
       </c>
@@ -5149,7 +5205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>570</v>
       </c>
